--- a/pwbi/Risultati/namepaviment.xlsx
+++ b/pwbi/Risultati/namepaviment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Desktop\TESI\website\Web-Thesis\pwbi\Risultati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C4C5C3-9871-428E-823B-BA719F3968E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9D4C4F-851D-4A86-9EB8-D021B5489F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
   <si>
     <t>Object ID</t>
   </si>
@@ -517,7 +517,10 @@
     <t>fe32993917b2ddfeae1b81a5050612ec</t>
   </si>
   <si>
-    <t>Pavimentazione</t>
+    <t>Pavimentazione 1</t>
+  </si>
+  <si>
+    <t>Pavimentazione 2</t>
   </si>
 </sst>
 </file>
@@ -1361,11 +1364,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1640,7 +1646,7 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">

--- a/pwbi/Risultati/namepaviment.xlsx
+++ b/pwbi/Risultati/namepaviment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Desktop\TESI\website\Web-Thesis\pwbi\Risultati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9D4C4F-851D-4A86-9EB8-D021B5489F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D1A13C-5343-4F83-95A4-B55E321E8000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <t>Object ID</t>
   </si>
@@ -521,6 +521,9 @@
   </si>
   <si>
     <t>Pavimentazione 2</t>
+  </si>
+  <si>
+    <t>BEAM</t>
   </si>
 </sst>
 </file>
@@ -1364,8 +1367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1377,6 +1380,9 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="E1" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
